--- a/relatorio/Relatorio_Supervisor_NAO_ABRIR.xlsx
+++ b/relatorio/Relatorio_Supervisor_NAO_ABRIR.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1896"/>
+  <dimension ref="A1:E1924"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -47835,6 +47835,706 @@
         </is>
       </c>
     </row>
+    <row r="1897">
+      <c r="A1897" t="inlineStr">
+        <is>
+          <t>UBIRATAN DANTAS</t>
+        </is>
+      </c>
+      <c r="B1897" t="inlineStr">
+        <is>
+          <t>10.127.218.193</t>
+        </is>
+      </c>
+      <c r="C1897" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1897" t="inlineStr">
+        <is>
+          <t>2023-02-27</t>
+        </is>
+      </c>
+      <c r="E1897" t="inlineStr">
+        <is>
+          <t>13:48:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="1898">
+      <c r="A1898" t="inlineStr">
+        <is>
+          <t>MATEUS SILVA</t>
+        </is>
+      </c>
+      <c r="B1898" t="inlineStr">
+        <is>
+          <t>10.127.205.31</t>
+        </is>
+      </c>
+      <c r="C1898" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1898" t="inlineStr">
+        <is>
+          <t>2023-02-27</t>
+        </is>
+      </c>
+      <c r="E1898" t="inlineStr">
+        <is>
+          <t>13:48:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="1899">
+      <c r="A1899" t="inlineStr">
+        <is>
+          <t>CLERIO ESTEVES</t>
+        </is>
+      </c>
+      <c r="B1899" t="inlineStr">
+        <is>
+          <t>10.127.206.63</t>
+        </is>
+      </c>
+      <c r="C1899" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1899" t="inlineStr">
+        <is>
+          <t>2023-02-27</t>
+        </is>
+      </c>
+      <c r="E1899" t="inlineStr">
+        <is>
+          <t>13:48:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="1900">
+      <c r="A1900" t="inlineStr">
+        <is>
+          <t>MARCELLO ZANLOUTH</t>
+        </is>
+      </c>
+      <c r="B1900" t="inlineStr">
+        <is>
+          <t>10.127.206.136</t>
+        </is>
+      </c>
+      <c r="C1900" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1900" t="inlineStr">
+        <is>
+          <t>2023-02-27</t>
+        </is>
+      </c>
+      <c r="E1900" t="inlineStr">
+        <is>
+          <t>13:48:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="1901">
+      <c r="A1901" t="inlineStr">
+        <is>
+          <t>CARLOS ANDRADE</t>
+        </is>
+      </c>
+      <c r="B1901" t="inlineStr">
+        <is>
+          <t>10.127.217.213</t>
+        </is>
+      </c>
+      <c r="C1901" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1901" t="inlineStr">
+        <is>
+          <t>2023-02-27</t>
+        </is>
+      </c>
+      <c r="E1901" t="inlineStr">
+        <is>
+          <t>13:48:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="1902">
+      <c r="A1902" t="inlineStr">
+        <is>
+          <t>UBIRATAN DANTAS</t>
+        </is>
+      </c>
+      <c r="B1902" t="inlineStr">
+        <is>
+          <t>10.127.218.193</t>
+        </is>
+      </c>
+      <c r="C1902" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1902" t="inlineStr">
+        <is>
+          <t>2023-02-27</t>
+        </is>
+      </c>
+      <c r="E1902" t="inlineStr">
+        <is>
+          <t>13:54:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="1903">
+      <c r="A1903" t="inlineStr">
+        <is>
+          <t>MATEUS SILVA</t>
+        </is>
+      </c>
+      <c r="B1903" t="inlineStr">
+        <is>
+          <t>10.127.205.31</t>
+        </is>
+      </c>
+      <c r="C1903" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1903" t="inlineStr">
+        <is>
+          <t>2023-02-27</t>
+        </is>
+      </c>
+      <c r="E1903" t="inlineStr">
+        <is>
+          <t>13:54:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="1904">
+      <c r="A1904" t="inlineStr">
+        <is>
+          <t>CLERIO ESTEVES</t>
+        </is>
+      </c>
+      <c r="B1904" t="inlineStr">
+        <is>
+          <t>10.127.206.63</t>
+        </is>
+      </c>
+      <c r="C1904" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1904" t="inlineStr">
+        <is>
+          <t>2023-02-27</t>
+        </is>
+      </c>
+      <c r="E1904" t="inlineStr">
+        <is>
+          <t>13:54:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="1905">
+      <c r="A1905" t="inlineStr">
+        <is>
+          <t>CARLOS ANDRADE</t>
+        </is>
+      </c>
+      <c r="B1905" t="inlineStr">
+        <is>
+          <t>10.127.217.213</t>
+        </is>
+      </c>
+      <c r="C1905" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1905" t="inlineStr">
+        <is>
+          <t>2023-02-27</t>
+        </is>
+      </c>
+      <c r="E1905" t="inlineStr">
+        <is>
+          <t>13:54:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="1906">
+      <c r="A1906" t="inlineStr">
+        <is>
+          <t>MARCELLO ZANLOUTH</t>
+        </is>
+      </c>
+      <c r="B1906" t="inlineStr">
+        <is>
+          <t>10.127.206.136</t>
+        </is>
+      </c>
+      <c r="C1906" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1906" t="inlineStr">
+        <is>
+          <t>2023-02-27</t>
+        </is>
+      </c>
+      <c r="E1906" t="inlineStr">
+        <is>
+          <t>13:54:46</t>
+        </is>
+      </c>
+    </row>
+    <row r="1907">
+      <c r="A1907" t="inlineStr">
+        <is>
+          <t>UBIRATAN DANTAS</t>
+        </is>
+      </c>
+      <c r="B1907" t="inlineStr">
+        <is>
+          <t>10.127.218.193</t>
+        </is>
+      </c>
+      <c r="C1907" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1907" t="inlineStr">
+        <is>
+          <t>2023-02-27</t>
+        </is>
+      </c>
+      <c r="E1907" t="inlineStr">
+        <is>
+          <t>14:00:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="1908">
+      <c r="A1908" t="inlineStr">
+        <is>
+          <t>MATEUS SILVA</t>
+        </is>
+      </c>
+      <c r="B1908" t="inlineStr">
+        <is>
+          <t>10.127.205.31</t>
+        </is>
+      </c>
+      <c r="C1908" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1908" t="inlineStr">
+        <is>
+          <t>2023-02-27</t>
+        </is>
+      </c>
+      <c r="E1908" t="inlineStr">
+        <is>
+          <t>14:00:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="1909">
+      <c r="A1909" t="inlineStr">
+        <is>
+          <t>CLERIO ESTEVES</t>
+        </is>
+      </c>
+      <c r="B1909" t="inlineStr">
+        <is>
+          <t>10.127.206.63</t>
+        </is>
+      </c>
+      <c r="C1909" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1909" t="inlineStr">
+        <is>
+          <t>2023-02-27</t>
+        </is>
+      </c>
+      <c r="E1909" t="inlineStr">
+        <is>
+          <t>14:00:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1910">
+      <c r="A1910" t="inlineStr">
+        <is>
+          <t>CARLOS ANDRADE</t>
+        </is>
+      </c>
+      <c r="B1910" t="inlineStr">
+        <is>
+          <t>10.127.217.213</t>
+        </is>
+      </c>
+      <c r="C1910" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1910" t="inlineStr">
+        <is>
+          <t>2023-02-27</t>
+        </is>
+      </c>
+      <c r="E1910" t="inlineStr">
+        <is>
+          <t>14:00:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="1911">
+      <c r="A1911" t="inlineStr">
+        <is>
+          <t>MARCELLO ZANLOUTH</t>
+        </is>
+      </c>
+      <c r="B1911" t="inlineStr">
+        <is>
+          <t>10.127.206.136</t>
+        </is>
+      </c>
+      <c r="C1911" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1911" t="inlineStr">
+        <is>
+          <t>2023-02-27</t>
+        </is>
+      </c>
+      <c r="E1911" t="inlineStr">
+        <is>
+          <t>14:00:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="1912">
+      <c r="A1912" t="inlineStr">
+        <is>
+          <t>UBIRATAN DANTAS</t>
+        </is>
+      </c>
+      <c r="B1912" t="inlineStr">
+        <is>
+          <t>10.127.218.193</t>
+        </is>
+      </c>
+      <c r="C1912" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1912" t="inlineStr">
+        <is>
+          <t>2023-02-27</t>
+        </is>
+      </c>
+      <c r="E1912" t="inlineStr">
+        <is>
+          <t>14:05:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="1913">
+      <c r="A1913" t="inlineStr">
+        <is>
+          <t>MATEUS SILVA</t>
+        </is>
+      </c>
+      <c r="B1913" t="inlineStr">
+        <is>
+          <t>10.127.205.31</t>
+        </is>
+      </c>
+      <c r="C1913" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1913" t="inlineStr">
+        <is>
+          <t>2023-02-27</t>
+        </is>
+      </c>
+      <c r="E1913" t="inlineStr">
+        <is>
+          <t>14:05:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="1914">
+      <c r="A1914" t="inlineStr">
+        <is>
+          <t>CLERIO ESTEVES</t>
+        </is>
+      </c>
+      <c r="B1914" t="inlineStr">
+        <is>
+          <t>10.127.206.63</t>
+        </is>
+      </c>
+      <c r="C1914" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1914" t="inlineStr">
+        <is>
+          <t>2023-02-27</t>
+        </is>
+      </c>
+      <c r="E1914" t="inlineStr">
+        <is>
+          <t>14:05:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="1915">
+      <c r="A1915" t="inlineStr">
+        <is>
+          <t>CARLOS ANDRADE</t>
+        </is>
+      </c>
+      <c r="B1915" t="inlineStr">
+        <is>
+          <t>10.127.217.213</t>
+        </is>
+      </c>
+      <c r="C1915" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1915" t="inlineStr">
+        <is>
+          <t>2023-02-27</t>
+        </is>
+      </c>
+      <c r="E1915" t="inlineStr">
+        <is>
+          <t>14:05:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="1916">
+      <c r="A1916" t="inlineStr">
+        <is>
+          <t>MARCELLO ZANLOUTH</t>
+        </is>
+      </c>
+      <c r="B1916" t="inlineStr">
+        <is>
+          <t>10.127.206.136</t>
+        </is>
+      </c>
+      <c r="C1916" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1916" t="inlineStr">
+        <is>
+          <t>2023-02-27</t>
+        </is>
+      </c>
+      <c r="E1916" t="inlineStr">
+        <is>
+          <t>14:06:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="1917">
+      <c r="A1917" t="inlineStr">
+        <is>
+          <t>UBIRATAN DANTAS</t>
+        </is>
+      </c>
+      <c r="B1917" t="inlineStr">
+        <is>
+          <t>10.127.218.193</t>
+        </is>
+      </c>
+      <c r="C1917" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1917" t="inlineStr">
+        <is>
+          <t>2023-02-27</t>
+        </is>
+      </c>
+      <c r="E1917" t="inlineStr">
+        <is>
+          <t>14:14:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="1918">
+      <c r="A1918" t="inlineStr">
+        <is>
+          <t>MATEUS SILVA</t>
+        </is>
+      </c>
+      <c r="B1918" t="inlineStr">
+        <is>
+          <t>10.127.205.31</t>
+        </is>
+      </c>
+      <c r="C1918" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1918" t="inlineStr">
+        <is>
+          <t>2023-02-27</t>
+        </is>
+      </c>
+      <c r="E1918" t="inlineStr">
+        <is>
+          <t>14:14:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="1919">
+      <c r="A1919" t="inlineStr">
+        <is>
+          <t>CLERIO ESTEVES</t>
+        </is>
+      </c>
+      <c r="B1919" t="inlineStr">
+        <is>
+          <t>10.127.206.63</t>
+        </is>
+      </c>
+      <c r="C1919" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1919" t="inlineStr">
+        <is>
+          <t>2023-02-27</t>
+        </is>
+      </c>
+      <c r="E1919" t="inlineStr">
+        <is>
+          <t>14:14:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="1920">
+      <c r="A1920" t="inlineStr">
+        <is>
+          <t>MARCELLO ZANLOUTH</t>
+        </is>
+      </c>
+      <c r="B1920" t="inlineStr">
+        <is>
+          <t>10.127.206.136</t>
+        </is>
+      </c>
+      <c r="C1920" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1920" t="inlineStr">
+        <is>
+          <t>2023-02-27</t>
+        </is>
+      </c>
+      <c r="E1920" t="inlineStr">
+        <is>
+          <t>14:14:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="1921">
+      <c r="A1921" t="inlineStr">
+        <is>
+          <t>UBIRATAN DANTAS</t>
+        </is>
+      </c>
+      <c r="B1921" t="inlineStr">
+        <is>
+          <t>10.127.218.193</t>
+        </is>
+      </c>
+      <c r="C1921" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1921" t="inlineStr">
+        <is>
+          <t>2023-02-27</t>
+        </is>
+      </c>
+      <c r="E1921" t="inlineStr">
+        <is>
+          <t>14:24:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="1922">
+      <c r="A1922" t="inlineStr">
+        <is>
+          <t>MATEUS SILVA</t>
+        </is>
+      </c>
+      <c r="B1922" t="inlineStr">
+        <is>
+          <t>10.127.205.31</t>
+        </is>
+      </c>
+      <c r="C1922" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1922" t="inlineStr">
+        <is>
+          <t>2023-02-27</t>
+        </is>
+      </c>
+      <c r="E1922" t="inlineStr">
+        <is>
+          <t>14:24:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="1923">
+      <c r="A1923" t="inlineStr">
+        <is>
+          <t>CLERIO ESTEVES</t>
+        </is>
+      </c>
+      <c r="B1923" t="inlineStr">
+        <is>
+          <t>10.127.206.63</t>
+        </is>
+      </c>
+      <c r="C1923" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1923" t="inlineStr">
+        <is>
+          <t>2023-02-27</t>
+        </is>
+      </c>
+      <c r="E1923" t="inlineStr">
+        <is>
+          <t>14:24:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1924">
+      <c r="A1924" t="inlineStr">
+        <is>
+          <t>MARCELLO ZANLOUTH</t>
+        </is>
+      </c>
+      <c r="B1924" t="inlineStr">
+        <is>
+          <t>10.127.206.136</t>
+        </is>
+      </c>
+      <c r="C1924" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1924" t="inlineStr">
+        <is>
+          <t>2023-02-27</t>
+        </is>
+      </c>
+      <c r="E1924" t="inlineStr">
+        <is>
+          <t>14:24:24</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
